--- a/Indexing_API/input_urls.xlsx
+++ b/Indexing_API/input_urls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dietb\PycharmProjects\Automatization\Indexing_API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178652DE-F33E-458B-8443-DC927751BFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529F0EE0-79CA-4502-B3D3-B96471D64300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="4095" windowWidth="9390" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="780" windowWidth="13410" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>urls</t>
   </si>
   <si>
-    <t>https://cryptoteh.ru</t>
+    <t>https://site.ru/url1</t>
+  </si>
+  <si>
+    <t>https://site.ru/url2</t>
+  </si>
+  <si>
+    <t>https://site.ru/url3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,11 +50,19 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -399,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,9 +431,21 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{2DED77F2-90F3-464A-ABB9-D81ABE7FB316}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{50C6C702-BC87-464B-9CD7-7EA474DA82F8}"/>
+    <hyperlink ref="A3:A4" r:id="rId2" display="https://site.ru/url1" xr:uid="{2FE9C9F9-5051-493B-8986-42C265CE0EB5}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
